--- a/data/Colbún.xlsx
+++ b/data/Colbún.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Colbún.xlsx
+++ b/data/Colbún.xlsx
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">

--- a/data/Colbún.xlsx
+++ b/data/Colbún.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Curamachi</t>
+          <t>Proyecto AR Panimávida Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MVC SOLAR 24 SPA</t>
+          <t>AR Energía Chile SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11000</v>
+        <v>110000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>19/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153757058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156508550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/10/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153757063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153757058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>?Modificación a Sistema de Tratamiento de Riles Embotelladora Metropolitana S.A.?.</t>
+          <t>Parque Fotovoltaico Curamachi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Embotelladora Metropolitana S.A.</t>
+          <t>MVC SOLAR 24 SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>80</v>
+        <v>11000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>18/10/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149714276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153757063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Curamachi</t>
+          <t>?Modificación a Sistema de Tratamiento de Riles Embotelladora Metropolitana S.A.?.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MVC SOLAR 24 SPA</t>
+          <t>Embotelladora Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11000</v>
+        <v>80</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/08/2020</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147473994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149714276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO RARI SOLAR</t>
+          <t>Planta Fotovoltaica Curamachi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Solares de Santa Elena SpA</t>
+          <t>MVC SOLAR 24 SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/07/2020</t>
+          <t>24/08/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147473994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Machicura I</t>
+          <t>PROYECTO FOTOVOLTAICO RARI SOLAR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MVC SOLAR 24 SPA</t>
+          <t>Solares de Santa Elena SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>21/07/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146321912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>?Modificación a Sistema de Tratamiento de Riles Embotelladora Metropolitana S.A.?.</t>
+          <t>Machicura I</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Embotelladora Metropolitana S.A.</t>
+          <t>MVC SOLAR 24 SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18/03/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145724768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146321912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Golondrinas</t>
+          <t>?Modificación a Sistema de Tratamiento de Riles Embotelladora Metropolitana S.A.?.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PFV LAS GOLONDRINAS SPA</t>
+          <t>Embotelladora Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>12000</v>
+        <v>80</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>05/11/2019</t>
+          <t>18/03/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144527068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145724768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Machicura</t>
+          <t>Parque Fotovoltaico Las Golondrinas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,11 +823,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>PFV LAS GOLONDRINAS SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144495587&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144527068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica MAUI</t>
+          <t>Parque Fotovoltaico Machicura</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MAUI SOLAR SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10550</v>
+        <v>9000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/02/2019</t>
+          <t>05/11/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142521636&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144495587&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -923,21 +923,21 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10500</v>
+        <v>10550</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>19/02/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142347017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142521636&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Solar Panimávida</t>
+          <t>Nueva Central Solar Fotovoltaica MAUI</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Los Libertadores Solar Spa</t>
+          <t>MAUI SOLAR SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/04/2018</t>
+          <t>22/01/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138755876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142347017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15/03/2018</t>
+          <t>18/04/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138755876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Parque Solar Panimávida</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Los Libertadores Solar Spa</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>12000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>15/03/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138739619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>92000</v>
+        <v>10</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/03/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/02/2014</t>
+          <t>20/03/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Restitución Banco de Autotransformadores en S/E Ancoa</t>
+          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>21000</v>
+        <v>92000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/01/2014</t>
+          <t>18/02/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129151537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Restitución banco de autotransformadores en Subestación Ancoa</t>
+          <t>Restitución Banco de Autotransformadores en S/E Ancoa</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15/01/2014</t>
+          <t>20/01/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129133239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129151537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Restitución banco de autotransformadores en Subestación Ancoa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50000</v>
+        <v>21000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>15/01/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129133239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>140400</v>
+        <v>50000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Chupallar, Obras de Generación y Transmisión</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Chupallar SpA</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>49500</v>
+        <v>140400</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>07/10/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128579928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
+          <t>Central Hidroeléctrica Chupallar, Obras de Generación y Transmisión</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Empresa Eléctrica Chupallar SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>600</v>
+        <v>49500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>25/02/2013</t>
+          <t>07/10/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128579928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>25/02/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
+          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>40000</v>
+        <v>600</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
+          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>240</v>
+        <v>40000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>240</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,40 +1720,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Los Hierros II, Obras de Generación y Transmisión</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Portezuelo SpA</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6553739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,40 +1768,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Central Hidroeléctrica Los Hierros II, Obras de Generación y Transmisión</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Empresa Eléctrica Portezuelo SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>16000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>12/03/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6553739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,40 +1864,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 1x220 KV Centinela - Panimávida</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>16500</v>
+        <v>100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO AGUAS SERVIDAS SECTOR COLBUN</t>
+          <t>Línea de Transmisión 1x220 KV Centinela - Panimávida</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Colbún</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3605</v>
+        <v>16500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14/10/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6005157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,12 +1960,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>PLANTA DE TRATAMIENTO AGUAS SERVIDAS SECTOR COLBUN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Ilustre Municipalidad de Colbún</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>11300</v>
+        <v>3605</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>14/10/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6005157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ampliación de la Subestación Ancoa</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>11513</v>
+        <v>11300</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Diseño de Ingeniería Ampliación y Mejoramiento Servicio de Agua Potable Rural Quemaus</t>
+          <t>Ampliación de la Subestación Ancoa</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cooperativa de Servicio de Agua Potable y Alcantarillado Quemaus Ltda.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1638</v>
+        <v>11513</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/03/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5410640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Los Hierros- Canal Melado; y Subestaciones Los Hierros y Canal Melado</t>
+          <t>Diseño de Ingeniería Ampliación y Mejoramiento Servicio de Agua Potable Rural Quemaus</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transmisión del Melado SpA</t>
+          <t>Cooperativa de Servicio de Agua Potable y Alcantarillado Quemaus Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10330</v>
+        <v>1638</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11/01/2011</t>
+          <t>15/03/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5170730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5410640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Línea de Transmisión Eléctrica Los Hierros- Canal Melado; y Subestaciones Los Hierros y Canal Melado</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Transmisión del Melado SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>130000</v>
+        <v>10330</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>11/01/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5170730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,30 +2200,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proyecto San Ambrosio</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>46300</v>
+        <v>130000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>07/12/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5133423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Proyecto San Ambrosio</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>300</v>
+        <v>46300</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>07/12/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5133423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,36 +2344,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Los Hierros</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Empresa Electrica Aguas del Melado S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09/11/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4138666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2388,14 +2392,10 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modificación de Trazado Variante Ruta L-39. Sector Embalse Ancoa, Linares. (e-seia)</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Central Hidroeléctrica Los Hierros</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -2403,15 +2403,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Empresa Electrica Aguas del Melado S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>11126</v>
+        <v>50000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>11/09/2009</t>
+          <t>09/11/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4036404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4138666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Modificación de Trazado Variante Ruta L-39. Sector Embalse Ancoa, Linares. (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2446,30 +2446,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>22</v>
+        <v>11126</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>11/09/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4036404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica San Clemente-Chiburgo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2494,30 +2494,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3744189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica San Clemente-Chiburgo (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2542,20 +2542,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Colbún Transmisión SA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>300</v>
+        <v>990</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>30/04/2009</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3744189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2580,10 +2580,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -2591,15 +2595,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>40000</v>
+        <v>300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2609,7 +2613,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2624,30 +2628,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo mediante micro aspersores Tratamiento Riles al suelo micro aspersores (e-seia)</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Agroindustrial Machicura Limitada</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>150</v>
+        <v>40000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04/01/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2610814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Embotelladora Latinoamericana Embotelladora Latinoamericana (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo mediante micro aspersores Tratamiento Riles al suelo micro aspersores (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2687,15 +2687,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Embotelladora Metropolitana S.A.</t>
+          <t>Agroindustrial Machicura Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06/11/2007</t>
+          <t>04/01/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2610814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Embotelladora Latinoamericana Embotelladora Latinoamericana (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2730,20 +2730,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Embotelladora Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>06/11/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2783,25 +2783,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Diseño de Mejoramiento y ampliación del Servicio de Agua Potable Rural Bazaes Rincón de Pataguas - Pataguas Oriente, Comuna de Colbún (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2826,30 +2826,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Pedro Reveco González</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>494</v>
+        <v>234</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2272177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Diseño de Mejoramiento y ampliación del Servicio de Agua Potable Rural Bazaes Rincón de Pataguas - Pataguas Oriente, Comuna de Colbún (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2874,30 +2874,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Pedro Reveco González</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>494</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2272177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2927,15 +2927,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2975,25 +2975,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,17 +3031,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Peralte de Compuertas del Embalse Colbún (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3066,30 +3066,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>12/07/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROYECTO ENERGIZACIÓN EN 500 KV DE LA LÍNEA DE TRANSMISIÓN ALTO JAHUEL - POLPAICO (e-seia)</t>
+          <t>Peralte de Compuertas del Embalse Colbún (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3114,20 +3114,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>40500</v>
+        <v>203</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09/05/2006</t>
+          <t>12/07/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>PROYECTO ENERGIZACIÓN EN 500 KV DE LA LÍNEA DE TRANSMISIÓN ALTO JAHUEL - POLPAICO (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3167,25 +3167,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4000</v>
+        <v>40500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>09/05/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,17 +3223,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3248,40 +3248,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Embalse Ancoa</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>55000</v>
+        <v>4000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1234487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3296,26 +3296,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse Ancoa</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>72</v>
+        <v>55000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3324,12 +3324,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1234487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Loteo Don Francisco II (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3354,30 +3354,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Inversiones San Javier S.A.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2452</v>
+        <v>72</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=896724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3411,21 +3411,21 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2539</v>
+        <v>2452</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>29/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=908464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=896724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Aumento de Generación en Complejo Colbún, sector Chiburgo (e-seia)</t>
+          <t>Loteo Don Francisco II (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3455,25 +3455,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Inversiones San Javier S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>8700</v>
+        <v>2539</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/05/2005</t>
+          <t>29/06/2005</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=685142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=908464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Aumento de Generación en Complejo Colbún, sector Chiburgo (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3503,15 +3503,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>20/05/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=685142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Loteo Don Francisco II (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3551,25 +3551,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>INVERSIONES Y COMERCIAL DON IGNACIO S.A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2356</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>29/12/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=547388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Loteo Don Francisco (e-seia)</t>
+          <t>Loteo Don Francisco II (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3599,15 +3599,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA E INMOBILIARIA INDEPENDENCIA LIMITADA</t>
+          <t>INVERSIONES Y COMERCIAL DON IGNACIO S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>14204</v>
+        <v>2356</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>18/02/2004</t>
+          <t>29/12/2004</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=275856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=547388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Loteo Don Francisco (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3642,30 +3642,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>CONSTRUCTORA E INMOBILIARIA INDEPENDENCIA LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>6600</v>
+        <v>14204</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>18/02/2004</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=275856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3680,17 +3680,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de 2x220 kv S/E Ancoa S/E Itahue (Segunda Presentación)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3699,11 +3699,11 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>14080</v>
+        <v>6600</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de 2x220 KV S/E Ancoa - S/E Itahue (Primera Presentación)</t>
+          <t>Línea de Transmisión Eléctrica de 2x220 kv S/E Ancoa S/E Itahue (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,17 +3751,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3776,30 +3776,30 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Línea de Transmisión Eléctrica de 2x220 KV S/E Ancoa - S/E Itahue (Primera Presentación)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>6590</v>
+        <v>14080</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Reposición con Equipamiento Escuela F-532 San Dionisio Colbún</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3834,30 +3834,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Colbún</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>6590</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Reposición con Equipamiento Escuela F-532 San Dionisio</t>
+          <t>Reposición con Equipamiento Escuela F-532 San Dionisio Colbún</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3891,21 +3891,21 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>26/07/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Hotel Termas de Quinamávida</t>
+          <t>Reposición con Equipamiento Escuela F-532 San Dionisio</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Comercial Aillón Hnos. Ltda.</t>
+          <t>Ilustre Municipalidad de Colbún</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3943,17 +3943,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>14/12/2000</t>
+          <t>26/07/2001</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3439&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pesca Deportiva Fundo las Puertas de Rabones</t>
+          <t>Planta de Tratamiento de Aguas Servidas Hotel Termas de Quinamávida</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3983,15 +3983,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Esther Francisca Chimenti Agri</t>
+          <t>Comercial Aillón Hnos. Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>29/11/2000</t>
+          <t>14/12/2000</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3439&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Instalación Servicio de Alcantarillado y Tratamiento de Aguas Servidas Sector San Sebastián</t>
+          <t>Pesca Deportiva Fundo las Puertas de Rabones</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4031,15 +4031,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Colbún</t>
+          <t>Esther Francisca Chimenti Agri</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>21/06/2000</t>
+          <t>29/11/2000</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Instalación Servicio de Alcantarillado y Tratamiento de Aguas Servidas Sector Faja Aurora (Loteo San Carlitos)</t>
+          <t>Instalación Servicio de Alcantarillado y Tratamiento de Aguas Servidas Sector San Sebastián</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ampliación Sistema de Alcantarillado poblaciones Pablo Neruda y Cohavec</t>
+          <t>Instalación Servicio de Alcantarillado y Tratamiento de Aguas Servidas Sector Faja Aurora (Loteo San Carlitos)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4131,11 +4131,11 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>04/05/2000</t>
+          <t>21/06/2000</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Piscicultura Salmones Colbún</t>
+          <t>Ampliación Sistema de Alcantarillado poblaciones Pablo Neruda y Cohavec</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4175,15 +4175,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Smoltec SpA</t>
+          <t>Ilustre Municipalidad de Colbún</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>03/06/1999</t>
+          <t>04/05/2000</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Estación de Servicio</t>
+          <t>Piscicultura Salmones Colbún</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4223,25 +4223,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Verónica Elena Vargas Musalem</t>
+          <t>Smoltec SpA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>26/05/1999</t>
+          <t>03/06/1999</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4256,40 +4256,40 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Colbun-Alto Jahuel 220 KV</t>
+          <t>Estación de Servicio</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Verónica Elena Vargas Musalem</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>72000</v>
+        <v>30</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/04/1996</t>
+          <t>26/05/1999</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Sistema de Transmisión Colbun-Alto Jahuel 220 KV</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4319,15 +4319,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Colbún Transmisión SA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>850000</v>
+        <v>72000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>30/04/1996</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4352,43 +4352,91 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Colbún</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>Líneas de Transmisión Charrua-Ancoa-Alto Jahuel</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Interregional</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>TRANSELEC S.A.</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="F85" t="n">
         <v>100000</v>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>20/11/1995</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>Colbún</t>
         </is>

--- a/data/Colbún.xlsx
+++ b/data/Colbún.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Colbún.xlsx
+++ b/data/Colbún.xlsx
@@ -2547,7 +2547,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">

--- a/data/Colbún.xlsx
+++ b/data/Colbún.xlsx
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">

--- a/data/Colbún.xlsx
+++ b/data/Colbún.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Colbún.xlsx
+++ b/data/Colbún.xlsx
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F85" t="n">

--- a/data/Colbún.xlsx
+++ b/data/Colbún.xlsx
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">

--- a/data/Colbún.xlsx
+++ b/data/Colbún.xlsx
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F85" t="n">
